--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neteroh\Desktop\Week_3_Handout\Assignments\The Level Renderer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neteroh\Desktop\FinalLevelRenderer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AE8C59-E138-4449-97C1-20C24D4E61A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DE1DFD-2CC9-490F-BF99-6255DDE62D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1267,7 +1267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,9 +2582,6 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
